--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_1_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_1_square_0.1_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.32000000000005</v>
+        <v>22.24000000000004</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.047939512943685e-12</v>
+        <v>2.897682094271659e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.326940080510316e-12</v>
+        <v>9.480952178544988e-14</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>42.32605176522544</v>
+        <v>45.01736723312373</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[30.902633067425555, 53.74947046302533]</t>
+          <t>[33.651238389443044, 56.38349607680441]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.376987909424315e-12</v>
+        <v>3.770317391627032e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>7.376987909424315e-12</v>
+        <v>3.770317391627032e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.528342372016657</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2138686329185795, 1.8428161111147343]</t>
+          <t>[1.2641844311742716, 1.8428161111147325]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.56333918844166</v>
+        <v>57.67545599889662</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.17276162331861, 66.95391675356471]</t>
+          <t>[50.33796314019112, 65.01294885760211]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.89081081081085</v>
+        <v>16.74122122122125</v>
       </c>
       <c r="X2" t="n">
-        <v>15.77369369369373</v>
+        <v>15.71715715715719</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.00792792792797</v>
+        <v>17.76528528528532</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.05000000000048</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>4.037174635000569e-16</v>
+        <v>4.249657510526915e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>52.67257471534455</v>
+        <v>47.60801289875827</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[44.16851214119335, 61.17663728949576]</t>
+          <t>[36.89626827444492, 58.319757523071615]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.673000292001772</v>
+        <v>-2.188737224122619</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.8365266363327715, -1.5094739476707728]</t>
+          <t>[-2.415158316273234, -1.9623161319720035]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>65.18349157349226</v>
+        <v>62.80621707082722</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[59.72016425552769, 70.64681889145683]</t>
+          <t>[57.261934410892025, 68.35049973076241]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6.669969969970097</v>
+        <v>8.632072072072223</v>
       </c>
       <c r="X3" t="n">
-        <v>6.018018018018137</v>
+        <v>7.739099099099236</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.321921921922057</v>
+        <v>9.525045045045211</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_1_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_1_square_0.1_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.24000000000004</v>
+        <v>22.71000000000011</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.897682094271659e-14</v>
+        <v>1.101341240428155e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>9.480952178544988e-14</v>
+        <v>3.494416253569219e-13</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>45.01736723312373</v>
+        <v>47.13056488436883</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[33.651238389443044, 56.38349607680441]</t>
+          <t>[34.80572241629636, 59.4554073524413]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.770317391627032e-13</v>
+        <v>1.872946242542639e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>3.770317391627032e-13</v>
+        <v>1.872946242542639e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.553500271144502</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 1.8428161111147325]</t>
+          <t>[1.3396581285578106, 1.9434477076261176]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.67545599889662</v>
+        <v>69.43481264556023</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.33796314019112, 65.01294885760211]</t>
+          <t>[61.6029603022352, 77.26666498888525]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.74122122122125</v>
+        <v>16.77675675675684</v>
       </c>
       <c r="X2" t="n">
-        <v>15.71715715715719</v>
+        <v>15.68558558558566</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.76528528528532</v>
+        <v>17.86792792792801</v>
       </c>
     </row>
     <row r="3">
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>4.249657510526915e-16</v>
+        <v>4.11193712824132e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>47.60801289875827</v>
+        <v>46.19329263993536</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.89626827444492, 58.319757523071615]</t>
+          <t>[35.91824959660964, 56.46833568326109]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.188737224122619</v>
+        <v>-2.264210921506157</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.415158316273234, -1.9623161319720035]</t>
+          <t>[-2.490632013656773, -2.037789829355541]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.80621707082722</v>
+        <v>63.86249944626775</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.261934410892025, 68.35049973076241]</t>
+          <t>[58.498317599263565, 69.22668129327192]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>8.632072072072223</v>
+        <v>8.929729729729887</v>
       </c>
       <c r="X3" t="n">
-        <v>7.739099099099236</v>
+        <v>8.036756756756898</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.525045045045211</v>
+        <v>9.822702702702877</v>
       </c>
     </row>
   </sheetData>
